--- a/Code/Results/Cases/Case_8_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015503807896776</v>
+        <v>1.012643941754637</v>
       </c>
       <c r="D2">
-        <v>1.034910737317199</v>
+        <v>1.03215119548599</v>
       </c>
       <c r="E2">
-        <v>1.019816669484881</v>
+        <v>1.017360478015235</v>
       </c>
       <c r="F2">
-        <v>1.040311711215909</v>
+        <v>1.038217059750786</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050599268780987</v>
+        <v>1.049096541095818</v>
       </c>
       <c r="J2">
-        <v>1.037230488610938</v>
+        <v>1.034452941244344</v>
       </c>
       <c r="K2">
-        <v>1.045904226433096</v>
+        <v>1.043180072815318</v>
       </c>
       <c r="L2">
-        <v>1.031006661023931</v>
+        <v>1.028583138053008</v>
       </c>
       <c r="M2">
-        <v>1.051236616559222</v>
+        <v>1.049168458078888</v>
       </c>
       <c r="N2">
-        <v>1.038703474876775</v>
+        <v>1.028914610679264</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049122684972733</v>
+        <v>1.047485893673804</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043528538863961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041611070327221</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023479366101215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018893075701657</v>
+        <v>1.015793252294505</v>
       </c>
       <c r="D3">
-        <v>1.037142019328124</v>
+        <v>1.034151744546284</v>
       </c>
       <c r="E3">
-        <v>1.022461045514364</v>
+        <v>1.019793230316887</v>
       </c>
       <c r="F3">
-        <v>1.042665639634311</v>
+        <v>1.040395836842775</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051360640674645</v>
+        <v>1.049725938913744</v>
       </c>
       <c r="J3">
-        <v>1.038881619673582</v>
+        <v>1.035862444566022</v>
       </c>
       <c r="K3">
-        <v>1.047320733473206</v>
+        <v>1.04436552781059</v>
       </c>
       <c r="L3">
-        <v>1.032814378139053</v>
+        <v>1.030178965216925</v>
       </c>
       <c r="M3">
-        <v>1.052780227754039</v>
+        <v>1.050536674199373</v>
       </c>
       <c r="N3">
-        <v>1.040356950734906</v>
+        <v>1.029704872268761</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050344334347559</v>
+        <v>1.048568733842253</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044527471032867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042446355106285</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023702115660275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021051920701512</v>
+        <v>1.017800502348018</v>
       </c>
       <c r="D4">
-        <v>1.038567685098841</v>
+        <v>1.035431142305383</v>
       </c>
       <c r="E4">
-        <v>1.024150981681283</v>
+        <v>1.021349322119332</v>
       </c>
       <c r="F4">
-        <v>1.04417130330323</v>
+        <v>1.041790625320977</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051838910563518</v>
+        <v>1.050120456626887</v>
       </c>
       <c r="J4">
-        <v>1.039932027125538</v>
+        <v>1.036759575397784</v>
       </c>
       <c r="K4">
-        <v>1.048221891211215</v>
+        <v>1.045119954140309</v>
       </c>
       <c r="L4">
-        <v>1.033966408201453</v>
+        <v>1.031196730995009</v>
       </c>
       <c r="M4">
-        <v>1.053764319221409</v>
+        <v>1.051409538962966</v>
       </c>
       <c r="N4">
-        <v>1.041408849885927</v>
+        <v>1.030207861118475</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051123165907786</v>
+        <v>1.049259539836763</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045165547233407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042980767115137</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023841649724993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021954474533387</v>
+        <v>1.018639833484467</v>
       </c>
       <c r="D5">
-        <v>1.039166665740883</v>
+        <v>1.03596910460229</v>
       </c>
       <c r="E5">
-        <v>1.024859169402021</v>
+        <v>1.022001658486528</v>
       </c>
       <c r="F5">
-        <v>1.044802961773546</v>
+        <v>1.042376046024197</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052038664291654</v>
+        <v>1.0502852240351</v>
       </c>
       <c r="J5">
-        <v>1.040372286966246</v>
+        <v>1.037135782814248</v>
       </c>
       <c r="K5">
-        <v>1.048600950630955</v>
+        <v>1.045437745338389</v>
       </c>
       <c r="L5">
-        <v>1.034449227829577</v>
+        <v>1.031623470977467</v>
       </c>
       <c r="M5">
-        <v>1.054177314490694</v>
+        <v>1.051776107512741</v>
       </c>
       <c r="N5">
-        <v>1.041849734946107</v>
+        <v>1.030418786440019</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051450019176092</v>
+        <v>1.049549650739557</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045440688525108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043213309621267</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023900367400673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022109153617041</v>
+        <v>1.018783536378539</v>
       </c>
       <c r="D6">
-        <v>1.039271706934279</v>
+        <v>1.036063661163223</v>
       </c>
       <c r="E6">
-        <v>1.02498105364313</v>
+        <v>1.022113843712661</v>
       </c>
       <c r="F6">
-        <v>1.04491215248937</v>
+        <v>1.042477269180731</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052074549961576</v>
+        <v>1.050315063951005</v>
       </c>
       <c r="J6">
-        <v>1.040449478224647</v>
+        <v>1.037201860183738</v>
       </c>
       <c r="K6">
-        <v>1.048669051911955</v>
+        <v>1.045495319408294</v>
       </c>
       <c r="L6">
-        <v>1.034533281779838</v>
+        <v>1.031697788246662</v>
       </c>
       <c r="M6">
-        <v>1.054249791931393</v>
+        <v>1.051840585527457</v>
       </c>
       <c r="N6">
-        <v>1.041927035824949</v>
+        <v>1.030455833495298</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051507379354435</v>
+        <v>1.049600680133068</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04549752189294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043263581072895</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023911558530274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021073696685465</v>
+        <v>1.01783792333791</v>
       </c>
       <c r="D7">
-        <v>1.038588364767037</v>
+        <v>1.035462742045238</v>
       </c>
       <c r="E7">
-        <v>1.024169249945521</v>
+        <v>1.021381830615178</v>
       </c>
       <c r="F7">
-        <v>1.044188813259839</v>
+        <v>1.041817378554506</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051848433676707</v>
+        <v>1.050137680302834</v>
       </c>
       <c r="J7">
-        <v>1.039947377155615</v>
+        <v>1.036790155718864</v>
       </c>
       <c r="K7">
-        <v>1.048239490744878</v>
+        <v>1.045148339649819</v>
       </c>
       <c r="L7">
-        <v>1.033981562062422</v>
+        <v>1.031225949948512</v>
       </c>
       <c r="M7">
-        <v>1.053778806738804</v>
+        <v>1.05143315929078</v>
       </c>
       <c r="N7">
-        <v>1.041424221714808</v>
+        <v>1.030276973391186</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051134631640589</v>
+        <v>1.049278233518695</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045197957510668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043022831057036</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023850221469974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016668590687801</v>
+        <v>1.013780218409839</v>
       </c>
       <c r="D8">
-        <v>1.035684342423409</v>
+        <v>1.032884243173791</v>
       </c>
       <c r="E8">
-        <v>1.020725835053603</v>
+        <v>1.018246005036562</v>
       </c>
       <c r="F8">
-        <v>1.041122190224448</v>
+        <v>1.038999817125315</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050868124566121</v>
+        <v>1.049346932840483</v>
       </c>
       <c r="J8">
-        <v>1.037804079135176</v>
+        <v>1.034996099929216</v>
       </c>
       <c r="K8">
-        <v>1.046401704313528</v>
+        <v>1.043636464455607</v>
       </c>
       <c r="L8">
-        <v>1.031632193611535</v>
+        <v>1.029184366911061</v>
       </c>
       <c r="M8">
-        <v>1.051772520725715</v>
+        <v>1.049676205866492</v>
       </c>
       <c r="N8">
-        <v>1.03927787996534</v>
+        <v>1.02937664397885</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049546812073169</v>
+        <v>1.047887738049378</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043903041434047</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041958819662933</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02357295188213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008618240434505</v>
+        <v>1.006318109535524</v>
       </c>
       <c r="D9">
-        <v>1.030403645476204</v>
+        <v>1.028163284511706</v>
       </c>
       <c r="E9">
-        <v>1.014476160220569</v>
+        <v>1.012514374871984</v>
       </c>
       <c r="F9">
-        <v>1.035565549006381</v>
+        <v>1.033869748948113</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.0490174426501</v>
+        <v>1.047816813856259</v>
       </c>
       <c r="J9">
-        <v>1.033870294420421</v>
+        <v>1.031649714993591</v>
       </c>
       <c r="K9">
-        <v>1.043021978503939</v>
+        <v>1.040815379383863</v>
       </c>
       <c r="L9">
-        <v>1.027338658136078</v>
+        <v>1.025407626325799</v>
       </c>
       <c r="M9">
-        <v>1.048106799896993</v>
+        <v>1.046436215068398</v>
       </c>
       <c r="N9">
-        <v>1.035338508825078</v>
+        <v>1.027519412278291</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046645669967811</v>
+        <v>1.045323524045594</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041510230575696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039960708093215</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023029793539521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003102808676178</v>
+        <v>1.001290767431701</v>
       </c>
       <c r="D10">
-        <v>1.026835760517098</v>
+        <v>1.025037503795746</v>
       </c>
       <c r="E10">
-        <v>1.010233247273609</v>
+        <v>1.00870231795485</v>
       </c>
       <c r="F10">
-        <v>1.03186838020896</v>
+        <v>1.030515237480821</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.0477393158823</v>
+        <v>1.046798117914133</v>
       </c>
       <c r="J10">
-        <v>1.031193859567185</v>
+        <v>1.029453266906981</v>
       </c>
       <c r="K10">
-        <v>1.040736821554728</v>
+        <v>1.038968949327356</v>
       </c>
       <c r="L10">
-        <v>1.024420163120962</v>
+        <v>1.022916207121091</v>
       </c>
       <c r="M10">
-        <v>1.045685131958198</v>
+        <v>1.044354553550357</v>
       </c>
       <c r="N10">
-        <v>1.03265827312736</v>
+        <v>1.026519685669263</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044780143861819</v>
+        <v>1.043727150448446</v>
       </c>
       <c r="Q10">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039911210478592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038673581842984</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02267705342498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001047868416254</v>
+        <v>0.9995033681482864</v>
       </c>
       <c r="D11">
-        <v>1.025691261656029</v>
+        <v>1.024110953060252</v>
       </c>
       <c r="E11">
-        <v>1.008712682437256</v>
+        <v>1.007419516069804</v>
       </c>
       <c r="F11">
-        <v>1.031077966641336</v>
+        <v>1.029900766648031</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047431486952212</v>
+        <v>1.046624978311986</v>
       </c>
       <c r="J11">
-        <v>1.03037711971759</v>
+        <v>1.028896822190985</v>
       </c>
       <c r="K11">
-        <v>1.040144414373007</v>
+        <v>1.03859205945795</v>
       </c>
       <c r="L11">
-        <v>1.023472139762263</v>
+        <v>1.022202854603085</v>
       </c>
       <c r="M11">
-        <v>1.04543666887367</v>
+        <v>1.044280000638832</v>
       </c>
       <c r="N11">
-        <v>1.031840373413497</v>
+        <v>1.02665012933032</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045016455727131</v>
+        <v>1.044101545450013</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039525003578691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038442993414685</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022660433351223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000410028215643</v>
+        <v>0.9989438439338021</v>
       </c>
       <c r="D12">
-        <v>1.025406492317741</v>
+        <v>1.023886424911014</v>
       </c>
       <c r="E12">
-        <v>1.008264699878963</v>
+        <v>1.007040173228473</v>
       </c>
       <c r="F12">
-        <v>1.0310766634622</v>
+        <v>1.029949340245181</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047406059012817</v>
+        <v>1.04663626746606</v>
       </c>
       <c r="J12">
-        <v>1.030197045043006</v>
+        <v>1.028792969538269</v>
       </c>
       <c r="K12">
-        <v>1.040062611023524</v>
+        <v>1.03856987376669</v>
       </c>
       <c r="L12">
-        <v>1.023235255892744</v>
+        <v>1.022033726231602</v>
       </c>
       <c r="M12">
-        <v>1.045631757058859</v>
+        <v>1.044524404350276</v>
       </c>
       <c r="N12">
-        <v>1.03166004301222</v>
+        <v>1.026784150488851</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045494899073252</v>
+        <v>1.044619289400348</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039467166624417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038427307875901</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022692420438979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000833240313389</v>
+        <v>0.9992875021116605</v>
       </c>
       <c r="D13">
-        <v>1.025781272669314</v>
+        <v>1.024191247437799</v>
       </c>
       <c r="E13">
-        <v>1.008621881605315</v>
+        <v>1.007324902773234</v>
       </c>
       <c r="F13">
-        <v>1.031705387604589</v>
+        <v>1.030523586121963</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047609657752169</v>
+        <v>1.04679523186968</v>
       </c>
       <c r="J13">
-        <v>1.030509885523927</v>
+        <v>1.02902931530038</v>
       </c>
       <c r="K13">
-        <v>1.040388235203213</v>
+        <v>1.038826678008555</v>
       </c>
       <c r="L13">
-        <v>1.023542257771053</v>
+        <v>1.022269534743554</v>
       </c>
       <c r="M13">
-        <v>1.046207285342647</v>
+        <v>1.045046318159471</v>
       </c>
       <c r="N13">
-        <v>1.031973327762507</v>
+        <v>1.02687424083697</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046224915137691</v>
+        <v>1.045307139393451</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03969491366073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038606149888776</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022767313449299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001611261955818</v>
+        <v>0.9999407683418958</v>
       </c>
       <c r="D14">
-        <v>1.026343675886491</v>
+        <v>1.024647763726644</v>
       </c>
       <c r="E14">
-        <v>1.00923760771559</v>
+        <v>1.007828529963081</v>
       </c>
       <c r="F14">
-        <v>1.032431077005754</v>
+        <v>1.031165599909712</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047856125265338</v>
+        <v>1.046975268789882</v>
       </c>
       <c r="J14">
-        <v>1.03095272232509</v>
+        <v>1.029351669207536</v>
       </c>
       <c r="K14">
-        <v>1.04080166154436</v>
+        <v>1.039135741884579</v>
       </c>
       <c r="L14">
-        <v>1.024004137072934</v>
+        <v>1.022621083733381</v>
       </c>
       <c r="M14">
-        <v>1.046782456465527</v>
+        <v>1.045539006968428</v>
       </c>
       <c r="N14">
-        <v>1.032416793442721</v>
+        <v>1.026920199476654</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046851954270103</v>
+        <v>1.045869105652212</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039988631935361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038826217123415</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022840408879434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002036586915972</v>
+        <v>1.000302666060064</v>
       </c>
       <c r="D15">
-        <v>1.026632382824424</v>
+        <v>1.024883294664398</v>
       </c>
       <c r="E15">
-        <v>1.009567758893814</v>
+        <v>1.008102071203319</v>
       </c>
       <c r="F15">
-        <v>1.032759944771134</v>
+        <v>1.031452252107715</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047970870973062</v>
+        <v>1.047056993116474</v>
       </c>
       <c r="J15">
-        <v>1.031174308569511</v>
+        <v>1.029511846480963</v>
       </c>
       <c r="K15">
-        <v>1.040999702494808</v>
+        <v>1.039281316143341</v>
       </c>
       <c r="L15">
-        <v>1.024240531166972</v>
+        <v>1.022801707108145</v>
       </c>
       <c r="M15">
-        <v>1.047020768016848</v>
+        <v>1.045735665522938</v>
       </c>
       <c r="N15">
-        <v>1.032638694365026</v>
+        <v>1.026930233133994</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04707766495026</v>
+        <v>1.046061919522985</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040134485498911</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038935549747502</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022870719498459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004288442219409</v>
+        <v>1.002253080215982</v>
       </c>
       <c r="D16">
-        <v>1.028075417727322</v>
+        <v>1.026074126856307</v>
       </c>
       <c r="E16">
-        <v>1.01128859692141</v>
+        <v>1.009555665937244</v>
       </c>
       <c r="F16">
-        <v>1.034234989177551</v>
+        <v>1.032726946607356</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048488221326798</v>
+        <v>1.047420059217506</v>
       </c>
       <c r="J16">
-        <v>1.032256696935471</v>
+        <v>1.030301090245531</v>
       </c>
       <c r="K16">
-        <v>1.041920366996141</v>
+        <v>1.039952696266246</v>
       </c>
       <c r="L16">
-        <v>1.025420892192968</v>
+        <v>1.02371832959653</v>
       </c>
       <c r="M16">
-        <v>1.04797751304082</v>
+        <v>1.046494401798552</v>
       </c>
       <c r="N16">
-        <v>1.033722619846618</v>
+        <v>1.026970152170217</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047795357125332</v>
+        <v>1.046623072574571</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040788567942091</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039413687179923</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022988886492502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005610886407743</v>
+        <v>1.003425903830608</v>
       </c>
       <c r="D17">
-        <v>1.028889678395148</v>
+        <v>1.026761804240227</v>
       </c>
       <c r="E17">
-        <v>1.012289580003012</v>
+        <v>1.010424656158462</v>
       </c>
       <c r="F17">
-        <v>1.034982845207897</v>
+        <v>1.03337455750412</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048754142254625</v>
+        <v>1.047609871991017</v>
       </c>
       <c r="J17">
-        <v>1.032855141079824</v>
+        <v>1.030753063233149</v>
       </c>
       <c r="K17">
-        <v>1.042409443226757</v>
+        <v>1.040316327125888</v>
       </c>
       <c r="L17">
-        <v>1.026085505805558</v>
+        <v>1.024252339362921</v>
       </c>
       <c r="M17">
-        <v>1.048404094400835</v>
+        <v>1.046821665027784</v>
       </c>
       <c r="N17">
-        <v>1.034321913850298</v>
+        <v>1.027036530542755</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04800419802328</v>
+        <v>1.046753286771085</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041136931372135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039673609580547</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023043599706596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006245876248541</v>
+        <v>1.004008385795399</v>
       </c>
       <c r="D18">
-        <v>1.029215385032643</v>
+        <v>1.027043538881061</v>
       </c>
       <c r="E18">
-        <v>1.012750553703724</v>
+        <v>1.010839897613155</v>
       </c>
       <c r="F18">
-        <v>1.035128037054743</v>
+        <v>1.033484454615034</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048815662090311</v>
+        <v>1.047645880536652</v>
       </c>
       <c r="J18">
-        <v>1.033074980951197</v>
+        <v>1.030920811768114</v>
       </c>
       <c r="K18">
-        <v>1.042548183693647</v>
+        <v>1.040411240831218</v>
       </c>
       <c r="L18">
-        <v>1.02635276662781</v>
+        <v>1.02447410731176</v>
       </c>
       <c r="M18">
-        <v>1.04836676487224</v>
+        <v>1.046749193627231</v>
       </c>
       <c r="N18">
-        <v>1.034542065919505</v>
+        <v>1.027048631585658</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047738442251843</v>
+        <v>1.046459487640571</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041223463866926</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039728009102881</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023037049295254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006267479706158</v>
+        <v>1.004050969943679</v>
       </c>
       <c r="D19">
-        <v>1.029111429435838</v>
+        <v>1.026960337623984</v>
       </c>
       <c r="E19">
-        <v>1.01273092438595</v>
+        <v>1.010839625496656</v>
       </c>
       <c r="F19">
-        <v>1.034730606088233</v>
+        <v>1.033101957122458</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048701231483069</v>
+        <v>1.047544766855193</v>
       </c>
       <c r="J19">
-        <v>1.032962526636134</v>
+        <v>1.030828067456524</v>
       </c>
       <c r="K19">
-        <v>1.042383940330184</v>
+        <v>1.040267242188532</v>
       </c>
       <c r="L19">
-        <v>1.026270080472907</v>
+        <v>1.024410285516247</v>
       </c>
       <c r="M19">
-        <v>1.047914135705489</v>
+        <v>1.04631114933127</v>
       </c>
       <c r="N19">
-        <v>1.034429451906415</v>
+        <v>1.026973549624687</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047057274656071</v>
+        <v>1.045789442711168</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041113693815101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039633184259971</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022977644703605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004556020212964</v>
+        <v>1.002562944348414</v>
       </c>
       <c r="D20">
-        <v>1.027790440410491</v>
+        <v>1.025838509242521</v>
       </c>
       <c r="E20">
-        <v>1.01135256537356</v>
+        <v>1.009660434356568</v>
       </c>
       <c r="F20">
-        <v>1.032849514102312</v>
+        <v>1.031374651711808</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048091137901406</v>
+        <v>1.047055601337713</v>
       </c>
       <c r="J20">
-        <v>1.031912437642259</v>
+        <v>1.029995425041573</v>
       </c>
       <c r="K20">
-        <v>1.041361617574108</v>
+        <v>1.039441742025915</v>
       </c>
       <c r="L20">
-        <v>1.025198688303169</v>
+        <v>1.023535517299632</v>
       </c>
       <c r="M20">
-        <v>1.046338332588171</v>
+        <v>1.044887372908083</v>
       </c>
       <c r="N20">
-        <v>1.033377871665722</v>
+        <v>1.026629210440665</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045286609803816</v>
+        <v>1.044138335266347</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040394776860804</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039053818457522</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022767259335987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000350542917545</v>
+        <v>0.9989776222347565</v>
       </c>
       <c r="D21">
-        <v>1.025042602761573</v>
+        <v>1.023608319349166</v>
       </c>
       <c r="E21">
-        <v>1.008118793026463</v>
+        <v>1.006981501344368</v>
       </c>
       <c r="F21">
-        <v>1.02993002564789</v>
+        <v>1.0288678926526</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047069976040322</v>
+        <v>1.046357469741956</v>
       </c>
       <c r="J21">
-        <v>1.02983361538368</v>
+        <v>1.028518150920516</v>
       </c>
       <c r="K21">
-        <v>1.039564575569393</v>
+        <v>1.038155815902725</v>
       </c>
       <c r="L21">
-        <v>1.022947967751018</v>
+        <v>1.021831803298241</v>
       </c>
       <c r="M21">
-        <v>1.044365716238989</v>
+        <v>1.043322243699331</v>
       </c>
       <c r="N21">
-        <v>1.031296097241091</v>
+        <v>1.026607949435566</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043684872081212</v>
+        <v>1.042859036688679</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039127420898326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038148158863585</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022533742246917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9976731230594065</v>
+        <v>0.9966790482340862</v>
       </c>
       <c r="D22">
-        <v>1.023304195097477</v>
+        <v>1.022189019161634</v>
       </c>
       <c r="E22">
-        <v>1.006069071501319</v>
+        <v>1.005271351463115</v>
       </c>
       <c r="F22">
-        <v>1.028114026448529</v>
+        <v>1.027306262163211</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046419443285633</v>
+        <v>1.045905940586757</v>
       </c>
       <c r="J22">
-        <v>1.028515785808662</v>
+        <v>1.027565696314494</v>
       </c>
       <c r="K22">
-        <v>1.038427708810833</v>
+        <v>1.037333360957476</v>
       </c>
       <c r="L22">
-        <v>1.021521250101816</v>
+        <v>1.020739100179082</v>
       </c>
       <c r="M22">
-        <v>1.043148381798849</v>
+        <v>1.042355514763181</v>
       </c>
       <c r="N22">
-        <v>1.029976396196919</v>
+        <v>1.026544528818556</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042721437086934</v>
+        <v>1.042093937643346</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038310185898601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037551910345998</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022383356514374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.999087733679345</v>
+        <v>0.9978687990748882</v>
       </c>
       <c r="D23">
-        <v>1.024216525466959</v>
+        <v>1.022914265236588</v>
       </c>
       <c r="E23">
-        <v>1.007149984051863</v>
+        <v>1.006149994357824</v>
       </c>
       <c r="F23">
-        <v>1.029070578470115</v>
+        <v>1.02811291641138</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046759605891629</v>
+        <v>1.046128017237361</v>
       </c>
       <c r="J23">
-        <v>1.029207805732113</v>
+        <v>1.028041250021993</v>
       </c>
       <c r="K23">
-        <v>1.039020974505092</v>
+        <v>1.03774242687517</v>
       </c>
       <c r="L23">
-        <v>1.022271555378364</v>
+        <v>1.021290583454222</v>
       </c>
       <c r="M23">
-        <v>1.043787328007147</v>
+        <v>1.042846883070304</v>
       </c>
       <c r="N23">
-        <v>1.030669398868038</v>
+        <v>1.026492185314433</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043227118442678</v>
+        <v>1.04248282175143</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038720065408549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037830607447048</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02245372878013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00457421598931</v>
+        <v>1.002581899451624</v>
       </c>
       <c r="D24">
-        <v>1.027776471089254</v>
+        <v>1.025825352020604</v>
       </c>
       <c r="E24">
-        <v>1.011359634017611</v>
+        <v>1.009668252204972</v>
       </c>
       <c r="F24">
-        <v>1.03280129645755</v>
+        <v>1.031326934545294</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048072203057121</v>
+        <v>1.047037325467516</v>
       </c>
       <c r="J24">
-        <v>1.031897315147931</v>
+        <v>1.029980922245004</v>
       </c>
       <c r="K24">
-        <v>1.041332748804075</v>
+        <v>1.039413632110763</v>
       </c>
       <c r="L24">
-        <v>1.02519015586816</v>
+        <v>1.023527683485608</v>
       </c>
       <c r="M24">
-        <v>1.046275871264332</v>
+        <v>1.044825376275184</v>
       </c>
       <c r="N24">
-        <v>1.033362727695717</v>
+        <v>1.026613167698356</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04519662350624</v>
+        <v>1.044048660491714</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040347125662619</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039004004655705</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022755252332688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010748836093016</v>
+        <v>1.008268863060169</v>
       </c>
       <c r="D25">
-        <v>1.031806434511171</v>
+        <v>1.029401181233482</v>
       </c>
       <c r="E25">
-        <v>1.016126788054191</v>
+        <v>1.014006156931324</v>
       </c>
       <c r="F25">
-        <v>1.037033511322201</v>
+        <v>1.035210529772646</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049520422958988</v>
+        <v>1.04822335781615</v>
       </c>
       <c r="J25">
-        <v>1.034919795912734</v>
+        <v>1.032521115829288</v>
       </c>
       <c r="K25">
-        <v>1.043930275305419</v>
+        <v>1.041559603984581</v>
       </c>
       <c r="L25">
-        <v>1.028479810313482</v>
+        <v>1.026390867690183</v>
       </c>
       <c r="M25">
-        <v>1.049082898219783</v>
+        <v>1.047285775012129</v>
       </c>
       <c r="N25">
-        <v>1.03638950072989</v>
+        <v>1.027942254769819</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047418179426814</v>
+        <v>1.045995889011651</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042180844686687</v>
+        <v>1.040518152402531</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023175341273495</v>
       </c>
     </row>
   </sheetData>
